--- a/Marketing/cal.roomme.xlsx
+++ b/Marketing/cal.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B555"/>
+  <dimension ref="A1:B407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>malia.koliander</t>
+          <t>anthony.miceli_</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>shreyaa_dd</t>
+          <t>mnnrvs</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zsmithh27</t>
+          <t>davidjlin</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ana_matteson</t>
+          <t>arshi.chawla</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>aanya.virmani</t>
+          <t>ophelia.lax</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>liaklebanov</t>
+          <t>jawtopi</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>_virajgupta._</t>
+          <t>nikhilb456</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mu81__</t>
+          <t>saba.qorbanzadeh</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ppnotfound</t>
+          <t>aaxliyxahhhh</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bambi_ca</t>
+          <t>sliva_marly_art</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>rajdeeep0_o</t>
+          <t>alea.dillow</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>irisstsui</t>
+          <t>tonner._</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>eva_khorsandi</t>
+          <t>hannes_solo</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>haddady_ryan</t>
+          <t>diego_balino</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jinyoung.min_</t>
+          <t>aaronbecker184</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>izzybee79</t>
+          <t>ej._.maxwell</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>jenniferyang04</t>
+          <t>ayushi.mody</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cyrusblue_3</t>
+          <t>cal.aepi</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>killlacate</t>
+          <t>shortyy.ash</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>pikachusy.bts.jimin</t>
+          <t>allisondanaa</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>emilyjordynn</t>
+          <t>carolyncyu</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>lelabellaaa</t>
+          <t>sinemerdem1</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>aryannsawantt</t>
+          <t>leah_marie50</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>angx7.0</t>
+          <t>_elnara1</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>lena._.todd13</t>
+          <t>teuertreue</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>fya.adriann</t>
+          <t>anishka.banerjee</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>lukefeldman_</t>
+          <t>sydney.d0</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>joeyyyyyy_leeeeee</t>
+          <t>ananya_vittaladevuni</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>anayaa_jogani</t>
+          <t>alan.castro05</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>poojaaaa._.m</t>
+          <t>itzeddieg27</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ethan_gu888</t>
+          <t>arthi.kay</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ayyyitsmelina606</t>
+          <t>anoukshabansal</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>maahirsachdev30</t>
+          <t>lmendez_376</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>shreya.smiles</t>
+          <t>j.baao</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>kiaraabhay</t>
+          <t>jaynkara</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>florialiyichen</t>
+          <t>katydurand_</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>varn.shah</t>
+          <t>ringochanapac</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>s_soapw</t>
+          <t>avabinman</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>yacobjang</t>
+          <t>etashadonthi</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>andyli0__0</t>
+          <t>omar_a_esparza</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>dom_lopez_442</t>
+          <t>nadiakhoool</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>parker.jt1</t>
+          <t>a.nj_an</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>joshwongsc</t>
+          <t>vankhanhkhoang</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>king.ibaad_23</t>
+          <t>nochanera</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>jackredmoon</t>
+          <t>michelamaher</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>sage.mosley</t>
+          <t>zander_v17</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>eli.atenn</t>
+          <t>daniel.skarsten</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>snigdhaa.kumar</t>
+          <t>aarja.singh</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>em1ly.zhang</t>
+          <t>zanemo109</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>noahgr8ce</t>
+          <t>sydneyseifer</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>shofmann42</t>
+          <t>theangelinawang</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lerin135</t>
+          <t>weebhugger</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kenza__achki</t>
+          <t>sammiecornejo</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>shraddhakadaba</t>
+          <t>grahamlwatson</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>jv.almeida4</t>
+          <t>elisee_thompson</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>blakeglickman</t>
+          <t>suyash.sl</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>oblivvion45</t>
+          <t>vrindaj22</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>khoixle</t>
+          <t>joyceyixu</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>anna.belle_liu</t>
+          <t>lucahadife</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>henallaqaband</t>
+          <t>sarahhrjones</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>gracewhoxy</t>
+          <t>aryan_dugar</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>angelaling4</t>
+          <t>mcfallin1</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sabrinashennnn</t>
+          <t>palomaraffle</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tibet.1209</t>
+          <t>katehatfieldd</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>llaurenlarsenn</t>
+          <t>vinayasivakumar</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>farliewillett</t>
+          <t>camillafonoberov</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>candice._.hsieh</t>
+          <t>vikaavanesie</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>n.atalie.i</t>
+          <t>mike_w_3</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mayaa__valentinaa</t>
+          <t>kenny.le.oof</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>kush_mhjn</t>
+          <t>ariellebash_</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>emmlazarus</t>
+          <t>allendmata</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ianmurdoch05</t>
+          <t>coley4p</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>vismaadr</t>
+          <t>dingli.05</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>inln_yc</t>
+          <t>greenhousebrookhouse</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>gbyjmz</t>
+          <t>steveningu</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>_rodrigogarciaf</t>
+          <t>boriss__05</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>jp_deanda</t>
+          <t>mehreenrosmon</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>thresia_v</t>
+          <t>_josh.howard_</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>rahul.gunturi</t>
+          <t>marilenaciuffa</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>simiiegrg</t>
+          <t>noah_choii</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cassidy__burns</t>
+          <t>david_cruzcs</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>adil_grover05</t>
+          <t>niki.cmq</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>carolynrvr</t>
+          <t>ja33myn</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>micahbennett042</t>
+          <t>chrosreyes</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>wyd.areli</t>
+          <t>andiuntrue</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kwon.jun7</t>
+          <t>blakebehmer</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>_b_e_l_l_a_d_</t>
+          <t>adhi_cini</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>mcfallin1</t>
+          <t>ritadarcangelo</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jude.dean_</t>
+          <t>_varunv_</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>edjungg__</t>
+          <t>sheeva.pham</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>alex_tongg</t>
+          <t>estherluxn</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>david.jlee</t>
+          <t>qingdu.hong</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mm1r1_</t>
+          <t>brianymkim_</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ankita.sundar</t>
+          <t>dylanxchang</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>leelu.bagilu</t>
+          <t>d.r_et</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>priyanshsinghh</t>
+          <t>stanleywon</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hitakt_</t>
+          <t>downtocal</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>aarnavi_nagumalli</t>
+          <t>neha.ravikumar42</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>frankie__rod</t>
+          <t>dylanrwestland</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rebecca_liu331</t>
+          <t>rohithkoneti_</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>christian.josephh</t>
+          <t>katie.zhang1</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>gootery</t>
+          <t>jr.wallisony</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>shriya_xn</t>
+          <t>leoarias17_</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>alongar.7</t>
+          <t>ryan_oh_04</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>sasvath.rama</t>
+          <t>anusha.muralikrishna</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>phiacalandrillo</t>
+          <t>brie0909</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>s_goody</t>
+          <t>chloeyuannn</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>teresayala_</t>
+          <t>ellaadavis_</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>kaanyaveroglu</t>
+          <t>gomdorri3</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>6rocco_1i</t>
+          <t>khoibillyn310</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>fu_wenjun_</t>
+          <t>jennifer.shengg</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>justin._.tan1000</t>
+          <t>mitchh.leee</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>_imgkimm</t>
+          <t>doctor_dirt07</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ananya.kulkarniii</t>
+          <t>anuragkavishwar</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>alexlodewick</t>
+          <t>_viviennotvivian__</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>loup.gourvenec</t>
+          <t>andrew_j_park</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>qingdu.hong</t>
+          <t>christian.josephh</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>anjaliii.sharma</t>
+          <t>adriannaa.elisaa</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>dat.phammm</t>
+          <t>nicholelodeon</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>leon_ch3n</t>
+          <t>_ella_ck_</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>emerald_red_leaf</t>
+          <t>puji.ta</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>camil1a</t>
+          <t>donatas_c</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>bkbernato</t>
+          <t>lil.avm</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>riya_singh0527</t>
+          <t>vinsoncst_</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>cchrisherreraa</t>
+          <t>herman.mp3</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jude.lif</t>
+          <t>davidxyao</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>anna.phung04</t>
+          <t>sahilk_17</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>thebinaaa</t>
+          <t>jojoma10</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>varshaaa.r</t>
+          <t>shreya_gullapalli</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>mayasbhandari</t>
+          <t>abby_daniyan_3</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,7 +1748,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>raeyn.rezqi</t>
+          <t>sophiamsaf</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>sudiksha.vn</t>
+          <t>kkelly.hu</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>madhura__joshi</t>
+          <t>nysa.c.sarkari</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>_ly.sol_</t>
+          <t>ce3berkeley</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>julian_jgonzalez</t>
+          <t>s.c_0703</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>d._.hoon_</t>
+          <t>vivian.trxn</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>no.aar528</t>
+          <t>aamberllee</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>arianna_lettieri_2006</t>
+          <t>that_nasa_nerd</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ma.ddie7124</t>
+          <t>viplove.rahate</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>amit_krishnan_</t>
+          <t>jamiegotjams</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ruben_not_reuben</t>
+          <t>a.arushi.21</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>adhi_cini</t>
+          <t>maggiedongg</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>stephentterry</t>
+          <t>aslantokbas</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>r._.ananya</t>
+          <t>tamzidrazzaque</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>fiona_salisbury</t>
+          <t>zacharyazane</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>_mr.xandre_</t>
+          <t>florialiyichen</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>tylerno_o</t>
+          <t>bowman.novey</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>emaweeb_124</t>
+          <t>ottis_5</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>anshi.kanodia</t>
+          <t>kasssiiii</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>byungha_1013</t>
+          <t>cyc_jonathan</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>grantyang6969</t>
+          <t>jasperkwann</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>shaylaaduong</t>
+          <t>shriya_xn</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>raquellgass</t>
+          <t>sophiarheault</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>laurah.gee</t>
+          <t>morales.kde</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>harsh_k108</t>
+          <t>where2beberkeley</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ty_nunes__</t>
+          <t>emilio_menotti</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>grace_katherine_rose</t>
+          <t>sweet09041973</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>joyceyixu</t>
+          <t>maya.narang</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>sheau21</t>
+          <t>milan.del.buono</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>vickyx.27</t>
+          <t>dom_lopez_442</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>bean.csax</t>
+          <t>prakash2044prakash</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>luciamtarantino</t>
+          <t>elenasantossss_</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ahmadkhalaf__</t>
+          <t>ankita.sundar</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>kathleengomezz</t>
+          <t>sonjarodin</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>samthescienceguy</t>
+          <t>julia_gee333</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>its.merg_</t>
+          <t>fr_luis_</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>jshdjjsksjns</t>
+          <t>llindsayryan</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>anah_iv2</t>
+          <t>shreyaa_dd</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>marc0511_</t>
+          <t>ma.na.s.a</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>tarunvenkat11</t>
+          <t>_natt.alie</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>shreya_gullapalli</t>
+          <t>n.nicolel</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>_zoepetty</t>
+          <t>lilahdevi</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>theprnav</t>
+          <t>alldayray_828</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>_larrypang</t>
+          <t>cca_baseball_succs</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>feleecia_li</t>
+          <t>sri.chandrasekaran</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>aamberllee</t>
+          <t>tylxrdo</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>olsaying</t>
+          <t>montses.ok</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>_ashikathomas</t>
+          <t>dexterr.liu</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>lilahdevi</t>
+          <t>prabhask5_</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>kethana.arnav</t>
+          <t>rswetha330</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>dayana_zav9</t>
+          <t>preetald_27</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>gingermrubin</t>
+          <t>rubenlleyya</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kristenyli</t>
+          <t>alexncoe</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>shelby.greenn</t>
+          <t>aaryamuk</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>kaan.kont</t>
+          <t>ashlyymarquez</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>luuucordova</t>
+          <t>kamisatiyeva</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>notariel.gor</t>
+          <t>plug_z3</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>_shikhakath_</t>
+          <t>viaadas</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>tosca.rothman</t>
+          <t>benjamin.kao</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>alexlr0704</t>
+          <t>nate_reinhart22</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>taraspande</t>
+          <t>mamiehirshx</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>miguellopes.17</t>
+          <t>aarushguptaa</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>indiacortese</t>
+          <t>hamilton.parkk</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>silasjtaylor</t>
+          <t>prakriti.s11</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>situze</t>
+          <t>jason.dones</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>alexhuangggg</t>
+          <t>haydnriedl</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>william.cao</t>
+          <t>shiba.i.mania</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>luca.manolache0</t>
+          <t>k4rset</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ykbl27</t>
+          <t>kayrhi_</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>u_k_r_i_s_h</t>
+          <t>sarah.digioia</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>_tejasraxwal</t>
+          <t>nivibee9</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ja33myn</t>
+          <t>davidk7979</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>olii.bella</t>
+          <t>dezee.garcia13</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>riadadia</t>
+          <t>therealkhushgandhi</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>rswetha330</t>
+          <t>jzllmdc</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>herman.mp3</t>
+          <t>mark.nour</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>ariana.of.suburbia</t>
+          <t>jakejuhyung</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>jacksonvoogt18</t>
+          <t>chriss_lmaoo</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>sibi.s_</t>
+          <t>jonathann.franco</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>_aaraverma_</t>
+          <t>maddyblackbird</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>kschreib562</t>
+          <t>ashleysharkgirl</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>kathrynxchow</t>
+          <t>mayasawicka</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>l3iyuj1n</t>
+          <t>jusstvn</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>inez11.22</t>
+          <t>raysdefiled</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>mia.khxn</t>
+          <t>varshaaa.r</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>kkelly.hu</t>
+          <t>sophiagisellek</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>ashley.liangg</t>
+          <t>shaya_sharifi</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>carissa.loverme</t>
+          <t>eihab_rodgers</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>_tae.ub_</t>
+          <t>avadegracia</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>arshi.chawla</t>
+          <t>leelu.bagilu</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>eihab_rodgers</t>
+          <t>yinyin.tann</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>jgalv_04</t>
+          <t>anikakasula</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>willkroll5</t>
+          <t>diananxox</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>arson.villa</t>
+          <t>_nandhinisundar</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>ianbuilder17</t>
+          <t>boringrehan</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>thankful.jess22</t>
+          <t>arushii.singhal</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>em._.1029</t>
+          <t>kirklawrus1</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>nichelle_wong</t>
+          <t>khangtpham</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>aniamhdawson</t>
+          <t>priyanshsinghh</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>fallenanglebagle</t>
+          <t>lizzthacker</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>tianasalisbury</t>
+          <t>achyutsch</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>kylie._.chang</t>
+          <t>brian.w18</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>omar_siimba</t>
+          <t>edjungg__</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ella.herbert_</t>
+          <t>shreya_night1005</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>its_kimmy_04</t>
+          <t>_andrew_hallett_</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>kelly.haa</t>
+          <t>aarav.badani</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>a.mararara</t>
+          <t>fivestarjahir</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>mahagarika</t>
+          <t>jianmjn</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>krishh.aroraa</t>
+          <t>_crystalchu</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>edna_bog</t>
+          <t>hannah_reagan1</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ethanjan3.14</t>
+          <t>fionncheng</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>moonlight1414</t>
+          <t>kaan.kont</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>leekihyuk11</t>
+          <t>dan.iel.ochoa</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>kimya.bhargava</t>
+          <t>aanvi.agr</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>sushrut.g</t>
+          <t>mike.fam.mvp</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>nikiwankiw</t>
+          <t>calfinedining</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>3milyeet</t>
+          <t>ahrian05</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>carsonkuehnert</t>
+          <t>nlaugenstein</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>vyomapatel_12</t>
+          <t>ryan.ck8</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>_.vickyhuang</t>
+          <t>3milyeet</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>er._kim</t>
+          <t>menimobong</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>_sofiacunha</t>
+          <t>vihaanm72</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>yynnxjj</t>
+          <t>elijahylee</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>mihitshukla</t>
+          <t>tibet.1209</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>maxinewuu</t>
+          <t>ushoshi.b</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jzllmdc</t>
+          <t>ernie.alexander_</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>afrajui</t>
+          <t>gigi_flowers7</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>darrencetran</t>
+          <t>josiee_cho</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>radical.05</t>
+          <t>inln_yc</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>tucker_gauss</t>
+          <t>annapados</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>mayasawicka</t>
+          <t>palomahashemi</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>donley_emma6688</t>
+          <t>sohanvuppala</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>xoxoflackaaa</t>
+          <t>kathryn_xie</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ashwaryeyadav</t>
+          <t>chloewchia</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>j.gurgen</t>
+          <t>shraddhakadaba</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>derekshah</t>
+          <t>samah.kh_</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>savannahjlevy</t>
+          <t>anayaa_jogani</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>sewphie.k</t>
+          <t>juliaa_wang</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>sofia_carrillo52</t>
+          <t>tanish.kher</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>daniel_bernath_liao</t>
+          <t>_derek.lo_</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>_amanshahh_</t>
+          <t>laurenmchen</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ushoshi.b</t>
+          <t>_amandip</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>sri.chandrasekaran</t>
+          <t>drennenmartin</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>erica.nassar</t>
+          <t>sudiksha.vn</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>isabel.cranky</t>
+          <t>_vittalv_</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>divya.arjunn</t>
+          <t>jerry__zhouu</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>shishiras25</t>
+          <t>zcychemistry</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>anshikaj1</t>
+          <t>_aryansriv</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sydneyreyes5</t>
+          <t>eric.liangg</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>madisonhua</t>
+          <t>riadadia</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>neeleshbokkisam</t>
+          <t>augustjdavis</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>isaac.wang7</t>
+          <t>lawrenceakan</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>rohanvuppala</t>
+          <t>chloeeliee</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>brykid123</t>
+          <t>slawboi</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>noeab16</t>
+          <t>aditicx</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>caprilewis</t>
+          <t>sasank_aduri</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>isaaa_m5</t>
+          <t>_shikhakath_</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>menimobong</t>
+          <t>alexlr0704</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>oliviawilki_</t>
+          <t>gmzannis</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>alicelmr34</t>
+          <t>adithjm</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>angie.zhuu</t>
+          <t>henrik.zhang</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>maxsrodman</t>
+          <t>william_1864</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>jackconnors322</t>
+          <t>rohanvuppala</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>devs_68</t>
+          <t>selinamendez_21</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>avilevin_</t>
+          <t>vicivoli</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>jonah.pirnazar</t>
+          <t>buvinnash_vinothasha</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>madmartin711</t>
+          <t>_michaelanee</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>kash26051</t>
+          <t>devynj0nes</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>sydney.d0</t>
+          <t>judy_zhen</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>it.s._.renata</t>
+          <t>jjuliajjung</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>ginnixson</t>
+          <t>taranathh</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>hilari_ouss</t>
+          <t>davidsshi</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>francisco_arrayga</t>
+          <t>xiongmeow_</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>troy.zhang_</t>
+          <t>es.ssl</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>joycekwon_</t>
+          <t>jessicadeerw</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>monicayoo_n</t>
+          <t>_zoepetty</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>_jacob_lindy</t>
+          <t>keshav_ag__</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>_leilats</t>
+          <t>roha.ngl</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>mochi_leapa</t>
+          <t>alexbchow</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>jjustin_park</t>
+          <t>navein.suresh</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>alkistoutzi</t>
+          <t>chanellemaoo</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>margaux.stehle</t>
+          <t>vickyx.27</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>bhuviraxwal</t>
+          <t>goghvind</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>ahrim_jung</t>
+          <t>jazzehner</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ndy.le</t>
+          <t>angela.xy.luo</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>adi.ariyur</t>
+          <t>s_goody</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>yiqinhuang_</t>
+          <t>leon_ch3n</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>tanyarawal</t>
+          <t>yaohan1688</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>joyy_zhangg</t>
+          <t>edwardjue</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>toastudies</t>
+          <t>britney.dang</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>lauren.lee314</t>
+          <t>jessekolodny</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>maya.luella</t>
+          <t>khoixle</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>yhuikerennn16</t>
+          <t>tommyieeep</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>ilovechristianandhiswattpad</t>
+          <t>dean.tat</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>addoorra</t>
+          <t>ruchadeo</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>ravs.archive</t>
+          <t>andrea.yyng</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>emilian.sega</t>
+          <t>zschuder</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>eli._.r3</t>
+          <t>neeleshbokkisam</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>eric_soju0314</t>
+          <t>namwob_divad</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>emilyquinter0</t>
+          <t>enzo_2581</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>madisonddavid</t>
+          <t>aryan_vichare10</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>xtanyarz</t>
+          <t>braelyn.elise</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>chrisj.lee04</t>
+          <t>jimmy.hernanddez</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>avafitou</t>
+          <t>les.juarezz</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>isabelle.katz</t>
+          <t>tyler._arellano.5</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>wesliewithanie</t>
+          <t>hyeog.si</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>wwwwwendyyf</t>
+          <t>ashwaryeyadav</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>guapa._burrito</t>
+          <t>tosca.rothman</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>jacob.jg15</t>
+          <t>kassandraj27</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>naashellyy</t>
+          <t>alejanddromacias</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>les.juarezz</t>
+          <t>_moonsie</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>_tanni.n_</t>
+          <t>thetachi.cal</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>maggiedongg</t>
+          <t>tiu.afalava</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>teuertreue</t>
+          <t>jeilyreynoso_</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>ananya_vittaladevuni</t>
+          <t>naominortiz</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>_catherinehuang_</t>
+          <t>afrajui</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>maya.narang</t>
+          <t>vx_elle</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>hash_vinothasha</t>
+          <t>jenniferliuu_</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>mishramandy</t>
+          <t>ella.donel</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>zacharyazane</t>
+          <t>dheer_baldua</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>httpsdomdotcom2</t>
+          <t>vanessa.hvynh</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ramalshare</t>
+          <t>kayla.bel</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>tato.henry</t>
+          <t>bhas_lady1</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>shanze.reza</t>
+          <t>emilian.sega</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>aaronbecker184</t>
+          <t>davinayashar</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>tarrific_tara</t>
+          <t>chiwii101</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>spencer__he</t>
+          <t>imanjudgee</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>yukipiyo530</t>
+          <t>emily.ma.ma</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>haleyvanmeurs</t>
+          <t>sariyyam12</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>wiinnieyu</t>
+          <t>ishanpatel05</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>chey.anne.c</t>
+          <t>victor1aaaa_</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>isshin.66</t>
+          <t>brrii.lopez</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>banessa_bravo</t>
+          <t>sareddymadhukar</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>sakchhiithapa</t>
+          <t>bella_d_b</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>emily.ma.ma</t>
+          <t>natalieaaluwihare</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>kijunlew</t>
+          <t>rodri.go_3</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>chrismarquand</t>
+          <t>vismaadr</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>arauosc</t>
+          <t>san.yxh</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>_vittalv_</t>
+          <t>tanishqs40</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>kareenakanumury</t>
+          <t>gootery</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>anikadontu</t>
+          <t>tato.henry</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>lea7c</t>
+          <t>saedigibbss</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>praneetaagrawal_</t>
+          <t>jsweetbrah</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>k_sunner84</t>
+          <t>_haley_hong_</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>flozhu</t>
+          <t>silasjtaylor</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>paytonbaber</t>
+          <t>theylovelarissac</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>avikgtm</t>
+          <t>snigdhaa.kumar</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>_harperhowell</t>
+          <t>w0nsang_c</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>arun_vs04</t>
+          <t>kimya.bhargava</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>hannah.w.119</t>
+          <t>cchloe.kimm</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>aarav.badani</t>
+          <t>reedyalouh</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>achyutsch</t>
+          <t>neeyuh.gee</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>alexkamras</t>
+          <t>cyrusblue_3</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>brooke.jefferis</t>
+          <t>damik_88</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>natalieee.sam</t>
+          <t>arnavd8</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>sejun_0229</t>
+          <t>rohanc043</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>lmaozedong100</t>
+          <t>yewoniekim</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>senator_based</t>
+          <t>this.lee</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>isaak25x</t>
+          <t>jason._.lay</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>mallika_ps</t>
+          <t>kimichael4317</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>shunsuke2055</t>
+          <t>khangaroo_vo</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>car10sgonza13z</t>
+          <t>ana.ventura17</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>hfrrrrbobbb</t>
+          <t>jose.riveraaaa</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>and_r_u_</t>
+          <t>harryc0422</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>hiba__rasul</t>
+          <t>anahanbaptist</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>jachanyan</t>
+          <t>florasullivann</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>edwardjue</t>
+          <t>martini_luu</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>josh.harmoan</t>
+          <t>abbey_austinwood</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>and_wongg</t>
+          <t>betty_berhane9</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ahmad.cyrus</t>
+          <t>nfredericks34</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>phbe.luo</t>
+          <t>hasan.alwahab</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>jjackiedv</t>
+          <t>frannydaughters</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>antheaguo1</t>
+          <t>paytonbaber</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>advikanittoor</t>
+          <t>adityxrxo</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>yesyes.chuu</t>
+          <t>wwwwwendyyf</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,1490 +4498,10 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>sadie.horowitz</t>
+          <t>cindyyy__wang</t>
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>shreya_night1005</t>
-        </is>
-      </c>
-      <c r="B408" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>zander_v17</t>
-        </is>
-      </c>
-      <c r="B409" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>husseinxalsayed</t>
-        </is>
-      </c>
-      <c r="B410" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>robbies_.g</t>
-        </is>
-      </c>
-      <c r="B411" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>haydnriedl</t>
-        </is>
-      </c>
-      <c r="B412" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>rheakundamal</t>
-        </is>
-      </c>
-      <c r="B413" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>anthonyymercado_</t>
-        </is>
-      </c>
-      <c r="B414" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>amruthaaa_</t>
-        </is>
-      </c>
-      <c r="B415" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>lalitha.kalle</t>
-        </is>
-      </c>
-      <c r="B416" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>_alyssaliao</t>
-        </is>
-      </c>
-      <c r="B417" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>iremkurtdemir</t>
-        </is>
-      </c>
-      <c r="B418" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>sephiogrey</t>
-        </is>
-      </c>
-      <c r="B419" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>tiva_.g._19</t>
-        </is>
-      </c>
-      <c r="B420" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>s.o.n.a.l.i.d.a.s</t>
-        </is>
-      </c>
-      <c r="B421" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>rohan.devraj</t>
-        </is>
-      </c>
-      <c r="B422" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>maya.chivakula</t>
-        </is>
-      </c>
-      <c r="B423" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>abhinavballa_</t>
-        </is>
-      </c>
-      <c r="B424" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>shunfujisawa_</t>
-        </is>
-      </c>
-      <c r="B425" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>quin.witherspoon</t>
-        </is>
-      </c>
-      <c r="B426" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>sophiacheng822</t>
-        </is>
-      </c>
-      <c r="B427" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>vrindaj22</t>
-        </is>
-      </c>
-      <c r="B428" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>pencil.case.trauma</t>
-        </is>
-      </c>
-      <c r="B429" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>prakriti.s11</t>
-        </is>
-      </c>
-      <c r="B430" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>aayush.shahh</t>
-        </is>
-      </c>
-      <c r="B431" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>tanish13_13_13</t>
-        </is>
-      </c>
-      <c r="B432" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>adriannaa.elisaa</t>
-        </is>
-      </c>
-      <c r="B433" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>samantha__rost</t>
-        </is>
-      </c>
-      <c r="B434" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>shreyas.101</t>
-        </is>
-      </c>
-      <c r="B435" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>art_moram</t>
-        </is>
-      </c>
-      <c r="B436" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>caris.cohn</t>
-        </is>
-      </c>
-      <c r="B437" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>richardxli156</t>
-        </is>
-      </c>
-      <c r="B438" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>huang_ie</t>
-        </is>
-      </c>
-      <c r="B439" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>pikaju5</t>
-        </is>
-      </c>
-      <c r="B440" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>slawboi</t>
-        </is>
-      </c>
-      <c r="B441" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>9yselle</t>
-        </is>
-      </c>
-      <c r="B442" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>itzeddieg27</t>
-        </is>
-      </c>
-      <c r="B443" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>4nn.kx</t>
-        </is>
-      </c>
-      <c r="B444" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>ma.na.s.a</t>
-        </is>
-      </c>
-      <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>joshuaurrutia1</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>meggiehong</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>definitelynotkenna</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>mollyygin</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>eleyre1</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>niyati.ram</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>myra_rf</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>shloks_06</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>natalie._.ph</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>alexbchow</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>raylin808</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>brendaarambulaa</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>jas.k19</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>sopitasssss</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>l.sea17</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>hamilton.parkk</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>cambriayee</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>smridhi.mahajan</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>nickyvben</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>raysdefiled</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>ilian.agonza</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>anewpaw</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>ky_le_chan</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>avacapriii</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>gss_gurnek</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>anoukshabansal</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>a_nettie_</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>heysteve.n</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>sanjitrao49</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>x_sa.naa_x</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>jennifer.shengg</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>ishanpatel05</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>hayko.02</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>riyaabiram</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>diego_balino</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>sid.banerjee00</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>shouartc</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>cindykaykwok</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>j.park05_</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>angelineyi</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>anikakasula</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>sakuuuu.7</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>atharvaberde2</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>rushma_0305</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>jennakatanani_</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>fionncheng</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>6heyenn3</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>terencenyy</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>khoibillyn310</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>olivialapinsky</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>devan.melwani</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>hiyaaaashah</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>miadela31</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>a.nika.ya</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>namgyal3444</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>emma_the_earthling_</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>rani_vakharia</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>piercez_1</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>cindyyy__wang</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>eseeth1204</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>discotheque36</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>manavbhargava7</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>charon.ena</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>_varunv_</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>dennis.kohhh1</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>aaron.w.lee</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>aryathegupta</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>zoey.dea</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>erinhrogers</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>riyaacat</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>jennaaa.kim</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>pranav_2603</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>wi11_huynh</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>nicoaraujo243</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>vivian.trxn</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>dheer_baldua</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>hannah.dermawan</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>rebecastacey</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>jas.quito</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>333stre11a</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>mnnrvs</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>robert1607_</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>mon._.mon3</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>zyler_chadsworth_3rd_esq</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>nithyashree.prabhu</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>audreyypark_</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>sophia_shams</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>henrik.zhang</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>harryc0422</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>jun.park04</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>matt_zhangggnnn</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>deeksha.kasula</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>yixqiao</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>jared_haertel</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>sheyla10s</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>ianwon.g</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>yo_landeee</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>ponyyyyyyydust</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>rjyang0</t>
-        </is>
-      </c>
-      <c r="B544" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>yo__christina</t>
-        </is>
-      </c>
-      <c r="B545" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>jayyeung1</t>
-        </is>
-      </c>
-      <c r="B546" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>nicjun95</t>
-        </is>
-      </c>
-      <c r="B547" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>essa_jime</t>
-        </is>
-      </c>
-      <c r="B548" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>manasaameenakshi</t>
-        </is>
-      </c>
-      <c r="B549" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>aadichandra2</t>
-        </is>
-      </c>
-      <c r="B550" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>navein.suresh</t>
-        </is>
-      </c>
-      <c r="B551" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>sahilk_17</t>
-        </is>
-      </c>
-      <c r="B552" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>sahaj.sidhuz</t>
-        </is>
-      </c>
-      <c r="B553" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>aanya__sethi</t>
-        </is>
-      </c>
-      <c r="B554" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>anish_beeram5</t>
-        </is>
-      </c>
-      <c r="B555" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/cal.roomme.xlsx
+++ b/Marketing/cal.roomme.xlsx
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">

--- a/Marketing/cal.roomme.xlsx
+++ b/Marketing/cal.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B407"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>anthony.miceli_</t>
+          <t>raquellgass</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mnnrvs</t>
+          <t>yixqiao</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>davidjlin</t>
+          <t>krishh.aroraa</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>arshi.chawla</t>
+          <t>g_zhang06</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ophelia.lax</t>
+          <t>samanthagin</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jawtopi</t>
+          <t>chelc.yi</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>nikhilb456</t>
+          <t>judy_zhen</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>saba.qorbanzadeh</t>
+          <t>a.mararara</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aaxliyxahhhh</t>
+          <t>rasyabollu</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sliva_marly_art</t>
+          <t>oliviaguoo</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>alea.dillow</t>
+          <t>zcychemistry</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tonner._</t>
+          <t>diananxox</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hannes_solo</t>
+          <t>rajoshi_b</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>diego_balino</t>
+          <t>jennaaa.kim</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>aaronbecker184</t>
+          <t>l.sea17</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ej._.maxwell</t>
+          <t>rinkomiyoshi</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ayushi.mody</t>
+          <t>jianmjn</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>cal.aepi</t>
+          <t>efeaslantataroglu</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>shortyy.ash</t>
+          <t>ellashofnos</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>allisondanaa</t>
+          <t>jesss.xue</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>carolyncyu</t>
+          <t>natalianikkhoo</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>sinemerdem1</t>
+          <t>_katelyn.smith_</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>leah_marie50</t>
+          <t>richroxs</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>_elnara1</t>
+          <t>izalilah_</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>teuertreue</t>
+          <t>ddonnychen_</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>anishka.banerjee</t>
+          <t>aarav.badani</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sydney.d0</t>
+          <t>anjannnaa</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ananya_vittaladevuni</t>
+          <t>nikhilp04</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>alan.castro05</t>
+          <t>ellaadavis_</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>itzeddieg27</t>
+          <t>nandika_nambiar</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>arthi.kay</t>
+          <t>owenlachs</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>anoukshabansal</t>
+          <t>ella.donel</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lmendez_376</t>
+          <t>katehatfieldd</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>j.baao</t>
+          <t>jamessbow</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jaynkara</t>
+          <t>reanna.w20</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>katydurand_</t>
+          <t>vayun.s</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ringochanapac</t>
+          <t>bowman.novey</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>avabinman</t>
+          <t>vivian._.zhao</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>etashadonthi</t>
+          <t>kathrynxchow</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>omar_a_esparza</t>
+          <t>cyrusblue_3</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>nadiakhoool</t>
+          <t>ianmurdoch05</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>a.nj_an</t>
+          <t>dylanmiller_66</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>vankhanhkhoang</t>
+          <t>gwenachapman</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>nochanera</t>
+          <t>ria.deshpande</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>michelamaher</t>
+          <t>aashnijoshi</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>zander_v17</t>
+          <t>arnavvgarg</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>daniel.skarsten</t>
+          <t>maya.chivakula</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>aarja.singh</t>
+          <t>nivibee9</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>zanemo109</t>
+          <t>alekhyaa_s</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sydneyseifer</t>
+          <t>aaxliyxahhhh</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>theangelinawang</t>
+          <t>rianarangg</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>weebhugger</t>
+          <t>shruti.s.vora</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>sammiecornejo</t>
+          <t>simiiegrg</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>grahamlwatson</t>
+          <t>katarinahaven</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>elisee_thompson</t>
+          <t>arshi.chawla</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>suyash.sl</t>
+          <t>divya_1217</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>vrindaj22</t>
+          <t>kassandraj27</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>joyceyixu</t>
+          <t>abhinavballa_</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>lucahadife</t>
+          <t>kieran.duffey</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>sarahhrjones</t>
+          <t>ronit_np</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>aryan_dugar</t>
+          <t>ashwaryeyadav</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>mcfallin1</t>
+          <t>keevnlee</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>palomaraffle</t>
+          <t>zanemo109</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>katehatfieldd</t>
+          <t>e3ston</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>vinayasivakumar</t>
+          <t>jojoma10</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>camillafonoberov</t>
+          <t>varn.shah</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>vikaavanesie</t>
+          <t>madhura__joshi</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mike_w_3</t>
+          <t>zackberger_</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kenny.le.oof</t>
+          <t>danhdere</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ariellebash_</t>
+          <t>katiiepage</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>allendmata</t>
+          <t>riththemythiccfish</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>coley4p</t>
+          <t>anastasiaa_ren</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dingli.05</t>
+          <t>alexlr0704</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>greenhousebrookhouse</t>
+          <t>olallalevi</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>steveningu</t>
+          <t>neeleshbokkisam</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>boriss__05</t>
+          <t>marionsberna</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mehreenrosmon</t>
+          <t>sarahrgolden</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>_josh.howard_</t>
+          <t>ethanspayde</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>marilenaciuffa</t>
+          <t>anea.msv</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>noah_choii</t>
+          <t>daniel_wilschetz</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>david_cruzcs</t>
+          <t>durusoy.deniz__</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>niki.cmq</t>
+          <t>kkelly.hu</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ja33myn</t>
+          <t>jaythan.jt.dao</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>chrosreyes</t>
+          <t>andyli0__0</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>andiuntrue</t>
+          <t>jessekolodny</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>blakebehmer</t>
+          <t>vanessa.hvynh</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>adhi_cini</t>
+          <t>nysa.c.sarkari</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ritadarcangelo</t>
+          <t>jachanyan</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>_varunv_</t>
+          <t>dannypanina</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sheeva.pham</t>
+          <t>jv.almeida4</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>estherluxn</t>
+          <t>niyati.ram</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>qingdu.hong</t>
+          <t>sakchhiithapa</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>brianymkim_</t>
+          <t>glvcxs16</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>dylanxchang</t>
+          <t>joyxeta</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>d.r_et</t>
+          <t>tanishqs40</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>stanleywon</t>
+          <t>nikkisternberg_</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>downtocal</t>
+          <t>mehreenrosmon</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>neha.ravikumar42</t>
+          <t>tibet.1209</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dylanrwestland</t>
+          <t>judgy_coco</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>rohithkoneti_</t>
+          <t>g.shanmukh</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>katie.zhang1</t>
+          <t>cyn_xyyyz</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>jr.wallisony</t>
+          <t>sara.frontino</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>leoarias17_</t>
+          <t>rodneymdi</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ryan_oh_04</t>
+          <t>vasaki_mahesan</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>anusha.muralikrishna</t>
+          <t>katecorlew</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>brie0909</t>
+          <t>wyattlpedersen</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>chloeyuannn</t>
+          <t>ananya_vittaladevuni</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ellaadavis_</t>
+          <t>juanapenalosac</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>gomdorri3</t>
+          <t>sandy.nguyennn</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>khoibillyn310</t>
+          <t>lerin135</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>jennifer.shengg</t>
+          <t>cchloe.kimm</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>mitchh.leee</t>
+          <t>annabelle_huang_</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>doctor_dirt07</t>
+          <t>ananya.kulkarniii</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>anuragkavishwar</t>
+          <t>nfredericks34</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>_viviennotvivian__</t>
+          <t>natalie.chau</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>andrew_j_park</t>
+          <t>zschuder</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>christian.josephh</t>
+          <t>sushrut.g</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>adriannaa.elisaa</t>
+          <t>knee.nuhh_</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>nicholelodeon</t>
+          <t>taranathh</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>_ella_ck_</t>
+          <t>ju.lia.liu</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>puji.ta</t>
+          <t>lena._.todd13</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>donatas_c</t>
+          <t>sinemerdem1</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>lil.avm</t>
+          <t>nlaugenstein</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>vinsoncst_</t>
+          <t>mariaaremoon</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>herman.mp3</t>
+          <t>phiacalandrillo</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>davidxyao</t>
+          <t>selinamendez_21</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>sahilk_17</t>
+          <t>navein.suresh</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jojoma10</t>
+          <t>ssabrina_f</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>shreya_gullapalli</t>
+          <t>adithjm</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>abby_daniyan_3</t>
+          <t>__gabbygutierrez__</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,507 +1748,507 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>sophiamsaf</t>
+          <t>nastaasiahaq</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>kkelly.hu</t>
+          <t>john_dong_465</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>nysa.c.sarkari</t>
+          <t>maana.kolagotla</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ce3berkeley</t>
+          <t>ege_.g</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>s.c_0703</t>
+          <t>zarintma</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vivian.trxn</t>
+          <t>yijinggtyj</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>aamberllee</t>
+          <t>sphereofstorms</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>that_nasa_nerd</t>
+          <t>cassiethecooki1</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>viplove.rahate</t>
+          <t>dean.tat</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>jamiegotjams</t>
+          <t>andreayanng</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>a.arushi.21</t>
+          <t>edjungg__</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>maggiedongg</t>
+          <t>sammith.s</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>aslantokbas</t>
+          <t>vinayasivakumar</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>tamzidrazzaque</t>
+          <t>rubenlleyya</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>zacharyazane</t>
+          <t>itsvedaa</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>florialiyichen</t>
+          <t>eihab_rodgers</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>bowman.novey</t>
+          <t>kschreib562</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ottis_5</t>
+          <t>tylerno_o</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>kasssiiii</t>
+          <t>ethanh_admn</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>cyc_jonathan</t>
+          <t>shravan.balaji05</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jasperkwann</t>
+          <t>mathew51o</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>shriya_xn</t>
+          <t>stqcyc</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>sophiarheault</t>
+          <t>wlywes</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>morales.kde</t>
+          <t>etashadonthi</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>where2beberkeley</t>
+          <t>dani.alpert</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>emilio_menotti</t>
+          <t>aarshi_majumder</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>sweet09041973</t>
+          <t>meteehliz</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>maya.narang</t>
+          <t>alan.castro05</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>milan.del.buono</t>
+          <t>ahadkhot_21</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>dom_lopez_442</t>
+          <t>ma.na.s.a</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>prakash2044prakash</t>
+          <t>keshav_ag__</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>elenasantossss_</t>
+          <t>arzbshara</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ankita.sundar</t>
+          <t>joyy_zhangg</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>sonjarodin</t>
+          <t>varshaaa.r</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>julia_gee333</t>
+          <t>erica.nassar</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>fr_luis_</t>
+          <t>alexbchow</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>llindsayryan</t>
+          <t>hannahekandel</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>shreyaa_dd</t>
+          <t>_alexmoyer</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ma.na.s.a</t>
+          <t>joyceyixu</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>_natt.alie</t>
+          <t>tarkh_l</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>n.nicolel</t>
+          <t>valarie_pieruccini</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>lilahdevi</t>
+          <t>naomi.hauser</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>alldayray_828</t>
+          <t>elliexhwang</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>cca_baseball_succs</t>
+          <t>jaylapenooo</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>sri.chandrasekaran</t>
+          <t>sarah.digioia</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>tylxrdo</t>
+          <t>suyash.sl</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>montses.ok</t>
+          <t>ishx.singh</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>dexterr.liu</t>
+          <t>edwardjue</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>prabhask5_</t>
+          <t>alexncoe</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>rswetha330</t>
+          <t>sage.mosley</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>preetald_27</t>
+          <t>teuertreue</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>rubenlleyya</t>
+          <t>sophiamsaf</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>alexncoe</t>
+          <t>iremkurtdemir</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>aaryamuk</t>
+          <t>aaronbecker184</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ashlyymarquez</t>
+          <t>jamie.say</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>kamisatiyeva</t>
+          <t>not_victor123</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>plug_z3</t>
+          <t>davinayashar</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>viaadas</t>
+          <t>sahilk_17</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>benjamin.kao</t>
+          <t>dezee.garcia13</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>nate_reinhart22</t>
+          <t>ianllind</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>mamiehirshx</t>
+          <t>_harperhowell</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>aarushguptaa</t>
+          <t>elisee_thompson</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>hamilton.parkk</t>
+          <t>camillafonoberov</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>prakriti.s11</t>
+          <t>lamiektewelde</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>jason.dones</t>
+          <t>angela.xy.luo</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>haydnriedl</t>
+          <t>nikki.valluri</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>shiba.i.mania</t>
+          <t>leia_castillo</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>k4rset</t>
+          <t>prakriti.s11</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>kayrhi_</t>
+          <t>virydiana.f</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>sarah.digioia</t>
+          <t>simon.glaza</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>nivibee9</t>
+          <t>n.nicolel</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>davidk7979</t>
+          <t>faris_khandaqji</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>dezee.garcia13</t>
+          <t>_shikhakath_</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>therealkhushgandhi</t>
+          <t>_andypeng</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>jzllmdc</t>
+          <t>thesashamay</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>mark.nour</t>
+          <t>malaynachang</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>jakejuhyung</t>
+          <t>sohanvuppala</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>chriss_lmaoo</t>
+          <t>smridhi.mahajan</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>jonathann.franco</t>
+          <t>_leo.ke_</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>maddyblackbird</t>
+          <t>ginnixson</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ashleysharkgirl</t>
+          <t>imanjudgee</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>mayasawicka</t>
+          <t>florialiyichen</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jusstvn</t>
+          <t>agarwal.aadya</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>raysdefiled</t>
+          <t>isaaa_m5</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>varshaaa.r</t>
+          <t>ruchadeo</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sophiagisellek</t>
+          <t>garima._.u</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>shaya_sharifi</t>
+          <t>therealkhushgandhi</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>eihab_rodgers</t>
+          <t>leahh.cohen</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>avadegracia</t>
+          <t>abbey_austinwood</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>leelu.bagilu</t>
+          <t>ethancrista11</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>yinyin.tann</t>
+          <t>sanjana_taware</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>anikakasula</t>
+          <t>aameliaadamss</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>diananxox</t>
+          <t>aarushguptaa</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>_nandhinisundar</t>
+          <t>vistaa.m</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>boringrehan</t>
+          <t>madmartin711</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>arushii.singhal</t>
+          <t>_varunv_</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>kirklawrus1</t>
+          <t>aslantokbas</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>khangtpham</t>
+          <t>sri.chandrasekaran</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>priyanshsinghh</t>
+          <t>sophiarheault</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>lizzthacker</t>
+          <t>sivan.rosen</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>achyutsch</t>
+          <t>robbiecamarillo</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>brian.w18</t>
+          <t>k.tate_</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>edjungg__</t>
+          <t>davidk7979</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>shreya_night1005</t>
+          <t>viaadas</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>_andrew_hallett_</t>
+          <t>shreyaa_dd</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>aarav.badani</t>
+          <t>tiu.afalava</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>fivestarjahir</t>
+          <t>fiona_salisbury</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>jianmjn</t>
+          <t>cormac.murran</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_crystalchu</t>
+          <t>yanikwick</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>hannah_reagan1</t>
+          <t>tucker_gauss</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>fionncheng</t>
+          <t>jade__nguyen_</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>kaan.kont</t>
+          <t>cchristopher.liu</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>dan.iel.ochoa</t>
+          <t>abmoney_26</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>aanvi.agr</t>
+          <t>emilyclarkily</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>mike.fam.mvp</t>
+          <t>saanviganesh_</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>calfinedining</t>
+          <t>shortyy.ash</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ahrian05</t>
+          <t>raylin808</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>nlaugenstein</t>
+          <t>iam.jpezy</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ryan.ck8</t>
+          <t>kirklawrus1</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>3milyeet</t>
+          <t>car10sgonza13z</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>menimobong</t>
+          <t>yhuikerennn16</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>vihaanm72</t>
+          <t>zaaria___b</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>elijahylee</t>
+          <t>lunaveda15</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>tibet.1209</t>
+          <t>poojaaaa._.m</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>ushoshi.b</t>
+          <t>huang_ie</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>ernie.alexander_</t>
+          <t>dani.elie</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>gigi_flowers7</t>
+          <t>flozhu</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>josiee_cho</t>
+          <t>chigozieokeke_</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>inln_yc</t>
+          <t>katie.a.wilson</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>annapados</t>
+          <t>nathan.yafeh</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>palomahashemi</t>
+          <t>mayasawicka</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sohanvuppala</t>
+          <t>avaacapri</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>kathryn_xie</t>
+          <t>_sofiacunha</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>chloewchia</t>
+          <t>s0fia.hernandez</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>shraddhakadaba</t>
+          <t>kamisatiyeva</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>samah.kh_</t>
+          <t>neha.ravikumar42</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>anayaa_jogani</t>
+          <t>neel.gajare</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>juliaa_wang</t>
+          <t>duniaahana</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>tanish.kher</t>
+          <t>elijah.hughess</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>_derek.lo_</t>
+          <t>thomasquinnild</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>laurenmchen</t>
+          <t>zacharyazane</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>_amandip</t>
+          <t>palomaraffle</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>drennenmartin</t>
+          <t>tyler_crissman</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>sudiksha.vn</t>
+          <t>jackredmoon</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>_vittalv_</t>
+          <t>manavbhargava7</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>jerry__zhouu</t>
+          <t>graceleth_</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>zcychemistry</t>
+          <t>david_cruzcs</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>_aryansriv</t>
+          <t>damik_88</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>eric.liangg</t>
+          <t>angie.zhuu</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>riadadia</t>
+          <t>trisha_._t</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>augustjdavis</t>
+          <t>liam.malik</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>lawrenceakan</t>
+          <t>caris.cohn</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>chloeeliee</t>
+          <t>michelle.moshkovoy</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>slawboi</t>
+          <t>burakbaktirr</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>aditicx</t>
+          <t>kathleen__mcloughlin</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>sasank_aduri</t>
+          <t>maggiedongg</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>_shikhakath_</t>
+          <t>indiacortese</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>alexlr0704</t>
+          <t>isshin.66</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>gmzannis</t>
+          <t>nora.willl</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>adithjm</t>
+          <t>shazadkhanm</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>henrik.zhang</t>
+          <t>chautrran</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>william_1864</t>
+          <t>amritakasula</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>rohanvuppala</t>
+          <t>rheakundamal</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>selinamendez_21</t>
+          <t>pari.saluja9</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>vicivoli</t>
+          <t>anahanbaptist</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>buvinnash_vinothasha</t>
+          <t>joycekwon_</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>_michaelanee</t>
+          <t>varun_sri_</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>devynj0nes</t>
+          <t>jsabatino2</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>judy_zhen</t>
+          <t>qingdu.hong</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>jjuliajjung</t>
+          <t>bergesievers</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>taranathh</t>
+          <t>jonah.pirnazar</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>davidsshi</t>
+          <t>joey_r_leadon</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>xiongmeow_</t>
+          <t>_tejasraxwal</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>es.ssl</t>
+          <t>cindyyy__wang</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>jessicadeerw</t>
+          <t>luca.haynes</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>_zoepetty</t>
+          <t>vedant_birla3</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>keshav_ag__</t>
+          <t>nadiaaliga</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>roha.ngl</t>
+          <t>debanshu_17</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>alexbchow</t>
+          <t>preetald_27</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>navein.suresh</t>
+          <t>ethanlwong</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>chanellemaoo</t>
+          <t>and_r_u_</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>vickyx.27</t>
+          <t>juliaa_wang</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>goghvind</t>
+          <t>_nandhinisundar</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>jazzehner</t>
+          <t>soodlerz</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>angela.xy.luo</t>
+          <t>owen.w.mcd</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>s_goody</t>
+          <t>liana_sanjines</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>leon_ch3n</t>
+          <t>kirinbhasin</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>yaohan1688</t>
+          <t>elladvorchak</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>edwardjue</t>
+          <t>s_soapw</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>britney.dang</t>
+          <t>tsolajanelle</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>jessekolodny</t>
+          <t>_tanni.n_</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>khoixle</t>
+          <t>kenza__achki</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>tommyieeep</t>
+          <t>sasank_aduri</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>dean.tat</t>
+          <t>lilahdevi</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ruchadeo</t>
+          <t>moonlight1414</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>andrea.yyng</t>
+          <t>boriss__05</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>zschuder</t>
+          <t>_haley_hong_</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>neeleshbokkisam</t>
+          <t>audrey.liddle</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>namwob_divad</t>
+          <t>anikachandwani</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>enzo_2581</t>
+          <t>jason._.lay</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>aryan_vichare10</t>
+          <t>bbrianlinn</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>braelyn.elise</t>
+          <t>yacobjang</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>jimmy.hernanddez</t>
+          <t>em_mango_</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>les.juarezz</t>
+          <t>yaohan1688</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>tyler._arellano.5</t>
+          <t>indra.deshmukh</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>hyeog.si</t>
+          <t>ishanpatel05</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ashwaryeyadav</t>
+          <t>allstarrohit3.0</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>tosca.rothman</t>
+          <t>emerald_red_leaf</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>kassandraj27</t>
+          <t>addoorra</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>alejanddromacias</t>
+          <t>hallieegann</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>_moonsie</t>
+          <t>nicholasqasawadish</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>thetachi.cal</t>
+          <t>robert1607_</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>tiu.afalava</t>
+          <t>sakuuuu.7</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>jeilyreynoso_</t>
+          <t>anikakasula</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>naominortiz</t>
+          <t>ryan_oh_04</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>afrajui</t>
+          <t>noralee.03</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>vx_elle</t>
+          <t>dom_lopez_442</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>jenniferliuu_</t>
+          <t>sivanath</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>ella.donel</t>
+          <t>anoukshabansal</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>dheer_baldua</t>
+          <t>milan.del.buono</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>vanessa.hvynh</t>
+          <t>shreya_night1005</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>kayla.bel</t>
+          <t>rani_vakharia</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>bhas_lady1</t>
+          <t>vihaanm72</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>emilian.sega</t>
+          <t>a.nika.ya</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>davinayashar</t>
+          <t>joshua_gohress</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>chiwii101</t>
+          <t>maxdlo12</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>imanjudgee</t>
+          <t>br1annajordan</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>emily.ma.ma</t>
+          <t>tvisha_78</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>sariyyam12</t>
+          <t>rswetha330</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ishanpatel05</t>
+          <t>joshmordaunt</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>victor1aaaa_</t>
+          <t>earngapt57</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>brrii.lopez</t>
+          <t>kenny.le.oof</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>sareddymadhukar</t>
+          <t>riadadia</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>bella_d_b</t>
+          <t>amandar121421</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>natalieaaluwihare</t>
+          <t>heysteve.n</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>rodri.go_3</t>
+          <t>tiannenguyen</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vismaadr</t>
+          <t>jeff.wangg</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>san.yxh</t>
+          <t>devan.melwani</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>tanishqs40</t>
+          <t>khulanxm</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>gootery</t>
+          <t>adityabagga</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>tato.henry</t>
+          <t>joshwongsc</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>saedigibbss</t>
+          <t>sasha.marcc</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>jsweetbrah</t>
+          <t>noah.mujica</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>_haley_hong_</t>
+          <t>alejanddromacias</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>silasjtaylor</t>
+          <t>gingermrubin</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>theylovelarissac</t>
+          <t>rushilghimire</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>snigdhaa.kumar</t>
+          <t>katydurand_</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>w0nsang_c</t>
+          <t>emilywuyishang</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>kimya.bhargava</t>
+          <t>sadie.horowitz</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,270 +4238,10 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>cchloe.kimm</t>
+          <t>sudiksha.vn</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>reedyalouh</t>
-        </is>
-      </c>
-      <c r="B382" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>neeyuh.gee</t>
-        </is>
-      </c>
-      <c r="B383" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>cyrusblue_3</t>
-        </is>
-      </c>
-      <c r="B384" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>damik_88</t>
-        </is>
-      </c>
-      <c r="B385" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>arnavd8</t>
-        </is>
-      </c>
-      <c r="B386" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>rohanc043</t>
-        </is>
-      </c>
-      <c r="B387" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>yewoniekim</t>
-        </is>
-      </c>
-      <c r="B388" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>this.lee</t>
-        </is>
-      </c>
-      <c r="B389" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>jason._.lay</t>
-        </is>
-      </c>
-      <c r="B390" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>kimichael4317</t>
-        </is>
-      </c>
-      <c r="B391" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>khangaroo_vo</t>
-        </is>
-      </c>
-      <c r="B392" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>ana.ventura17</t>
-        </is>
-      </c>
-      <c r="B393" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>jose.riveraaaa</t>
-        </is>
-      </c>
-      <c r="B394" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>harryc0422</t>
-        </is>
-      </c>
-      <c r="B395" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>anahanbaptist</t>
-        </is>
-      </c>
-      <c r="B396" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>florasullivann</t>
-        </is>
-      </c>
-      <c r="B397" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>martini_luu</t>
-        </is>
-      </c>
-      <c r="B398" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>abbey_austinwood</t>
-        </is>
-      </c>
-      <c r="B399" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>betty_berhane9</t>
-        </is>
-      </c>
-      <c r="B400" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>nfredericks34</t>
-        </is>
-      </c>
-      <c r="B401" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>hasan.alwahab</t>
-        </is>
-      </c>
-      <c r="B402" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>frannydaughters</t>
-        </is>
-      </c>
-      <c r="B403" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>paytonbaber</t>
-        </is>
-      </c>
-      <c r="B404" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>adityxrxo</t>
-        </is>
-      </c>
-      <c r="B405" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>wwwwwendyyf</t>
-        </is>
-      </c>
-      <c r="B406" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>cindyyy__wang</t>
-        </is>
-      </c>
-      <c r="B407" t="b">
         <v>0</v>
       </c>
     </row>
